--- a/Test Data Driven/AI-Generated/Common/fillShippingAddressDetailsAndContinueToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingAddressDetailsAndContinueToPayment.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1170,6 +1170,678 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>gsdfgd</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>fsd</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>25 f4 Address</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25 f4 city</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25 f4 first</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25 f4 last</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>address f5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>city f5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>first f5</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>last f5</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>f3 address</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>f2 city</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>f2. first</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f2 last</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Adress Flow 3 ( Step 2)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>City Flow 3 ( Step 5@)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>First Flow 3</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>last Flow 3 ( Step 5)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>f3 second address</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>f3 4 city</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>f3 first (s1)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f3 five last</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>hhh</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>hhh</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>hhh</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>25 f2 Address (2)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25 f2 City ( 3)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25 f2 First (1)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25 F2 Last (4)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2502834949444</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>250205</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>goo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ho chi minh</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>firs</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5566</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Adrress 25 f1 @#$%^&amp;*!(#)#*</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>25 F1 City</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25 f1 first name</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25 f1 last name</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>25012334567955</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Address Flow 4</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>City Flow 4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Flow 4 First</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Flow 4 Last</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Flow 6 Addresst</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Flow 6 City</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Flow 6 First Name</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Flow 7 Lasst Name</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Address Flow 1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>City Flow 1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>first flow 1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>last flow 2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sdafsd</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>dgdfg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ggg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>095756756757656</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>fsdfsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>f5 address 25</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>f5 city 25</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>f5 first 25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f5 last 25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>{{credit_debit_number}}</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2505</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>250505</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Adress flow 2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>City Flow 2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>last flow 2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/fillShippingAddressDetailsAndContinueToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingAddressDetailsAndContinueToPayment.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,132 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Address Flow 4</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>City Flow 4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Flow 4 First</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Flow 4 Last</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Flow 6 Addresst</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Flow 6 City</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Flow 6 First Name</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Flow 7 Lasst Name</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Address Flow 1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>City Flow 1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>first flow 1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>last flow 2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
